--- a/uploads/calendar.xlsx
+++ b/uploads/calendar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>序号</t>
   </si>
@@ -25,31 +25,99 @@
     <t>事件</t>
   </si>
   <si>
+    <t>01-01</t>
+  </si>
+  <si>
     <t>Cherry's birthday</t>
   </si>
   <si>
+    <t>02-28</t>
+  </si>
+  <si>
     <t>Alice's birthday</t>
   </si>
   <si>
+    <t>02-29</t>
+  </si>
+  <si>
     <t>Tom's</t>
   </si>
   <si>
+    <t>03-19</t>
+  </si>
+  <si>
     <t>Celine's</t>
   </si>
   <si>
+    <t>04-18</t>
+  </si>
+  <si>
     <t>ours</t>
+  </si>
+  <si>
+    <t>05-01</t>
+  </si>
+  <si>
+    <t>06-01</t>
+  </si>
+  <si>
+    <t>07-08</t>
+  </si>
+  <si>
+    <t>07-20</t>
+  </si>
+  <si>
+    <t>07-30</t>
+  </si>
+  <si>
+    <t>08-15</t>
+  </si>
+  <si>
+    <t>08-21</t>
+  </si>
+  <si>
+    <t>09-02</t>
+  </si>
+  <si>
+    <t>09-19</t>
+  </si>
+  <si>
+    <t>09-21</t>
+  </si>
+  <si>
+    <t>09-30</t>
+  </si>
+  <si>
+    <t>10-01</t>
+  </si>
+  <si>
+    <t>10-02</t>
+  </si>
+  <si>
+    <t>10-31</t>
+  </si>
+  <si>
+    <t>11-28</t>
+  </si>
+  <si>
+    <t>11-29</t>
+  </si>
+  <si>
+    <t>12-04</t>
+  </si>
+  <si>
+    <t>12-26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -61,6 +129,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -69,15 +198,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,15 +228,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,6 +250,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -119,30 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -150,55 +265,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,25 +281,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,19 +431,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,133 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +472,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -422,32 +529,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,35 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -658,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -979,12 +1047,12 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1003,253 +1071,253 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>42736</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>42780</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>42794</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>42924</v>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>43095</v>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>42736</v>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>42780</v>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>42794</v>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>42924</v>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>43095</v>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>42736</v>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>42780</v>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>42794</v>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>42924</v>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>43095</v>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>42736</v>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>42780</v>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>42794</v>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>42924</v>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>43095</v>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>42736</v>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>42780</v>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>42794</v>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
